--- a/TablePrimaryKeys.xlsx
+++ b/TablePrimaryKeys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\git_projects\accessAndMySQLTransfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970F64E2-3188-4CDB-B180-8F9B35B0183F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C48BB-F8E2-4C1E-BD54-81F04D48B6FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="211">
   <si>
     <t>RowNum</t>
   </si>
@@ -649,6 +649,12 @@
   </si>
   <si>
     <t>親戚姓名代碼(c_kin_id)</t>
+  </si>
+  <si>
+    <t>作品標題(text_title)</t>
+  </si>
+  <si>
+    <t>c_text_title</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection sqref="A1:J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1601,14 +1607,23 @@
       </c>
     </row>
     <row r="21" spans="1:10">
+      <c r="A21">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1618,26 +1633,17 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" t="s">
-        <v>175</v>
-      </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
         <v>164</v>
@@ -1671,135 +1677,144 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
         <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
         <v>164</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
         <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
         <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>164</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
+      <c r="A28">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -1810,7 +1825,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="D29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -1823,12 +1838,6 @@
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1836,7 +1845,7 @@
         <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1848,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1859,7 +1868,7 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1874,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1882,62 +1891,68 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
       </c>
       <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
         <v>164</v>
       </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="D34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1948,22 +1963,16 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1971,65 +1980,62 @@
         <v>41</v>
       </c>
       <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
         <v>43</v>
       </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
         <v>44</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J37" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
-        <v>148</v>
-      </c>
-      <c r="B37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F38" t="s">
         <v>164</v>
@@ -2042,14 +2048,23 @@
       </c>
     </row>
     <row r="39" spans="1:10">
+      <c r="A39">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
         <v>21</v>
@@ -2060,7 +2075,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="D40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
         <v>46</v>
@@ -2073,12 +2088,6 @@
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2086,16 +2095,22 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2103,71 +2118,65 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
         <v>49</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
         <v>29</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
+    <row r="44" spans="1:10">
+      <c r="A44">
         <v>157</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>189</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>190</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>189</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>191</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>164</v>
       </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="D44" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
       <c r="G44" t="s">
         <v>21</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2175,167 +2184,167 @@
         <v>192</v>
       </c>
       <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="D46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" t="s">
         <v>52</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
         <v>25</v>
       </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
         <v>53</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J46" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
-        <v>164</v>
-      </c>
-      <c r="B46" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" t="s">
-        <v>164</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G47" t="s">
         <v>21</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
         <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" t="s">
         <v>50</v>
       </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
         <v>51</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J50" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="D50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2343,100 +2352,94 @@
         <v>58</v>
       </c>
       <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
         <v>40</v>
       </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
         <v>59</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J52" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>185</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>62</v>
-      </c>
-      <c r="J52" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="J53" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
         <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -2450,100 +2453,103 @@
       <c r="I54" t="s">
         <v>29</v>
       </c>
-      <c r="J54" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
       </c>
       <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" t="s">
         <v>70</v>
       </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="D58" t="s">
         <v>53</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>52</v>
       </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
         <v>25</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58">
-        <v>201</v>
-      </c>
-      <c r="B58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" t="s">
-        <v>195</v>
-      </c>
-      <c r="F58" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2551,22 +2557,22 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G59" t="s">
         <v>21</v>
@@ -2577,51 +2583,45 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
         <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -2631,23 +2631,29 @@
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s">
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
         <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -2657,29 +2663,23 @@
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -2689,29 +2689,35 @@
       </c>
       <c r="H63" t="b">
         <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -2719,63 +2725,63 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
+        <v>262</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
         <v>278</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>80</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>81</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>80</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>82</v>
       </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="D66" t="s">
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="D67" t="s">
         <v>83</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>84</v>
       </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67">
-        <v>297</v>
-      </c>
-      <c r="B67" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" t="s">
-        <v>61</v>
-      </c>
       <c r="F67" t="s">
         <v>12</v>
       </c>
@@ -2784,58 +2790,55 @@
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>62</v>
-      </c>
-      <c r="J67" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B68" t="s">
         <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
         <v>207</v>
       </c>
       <c r="E68" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="J68" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B69" t="s">
         <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
         <v>207</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -2854,25 +2857,40 @@
       </c>
     </row>
     <row r="70" spans="1:10">
+      <c r="A70">
+        <v>295</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="D71" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
         <v>86</v>
@@ -2888,26 +2906,17 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72">
-        <v>311</v>
-      </c>
-      <c r="B72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2915,25 +2924,25 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2941,19 +2950,19 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
@@ -2967,19 +2976,19 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -2993,19 +3002,19 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -3019,37 +3028,46 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
+        <v>348</v>
+      </c>
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
         <v>353</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>98</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>94</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>98</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>99</v>
       </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="D78" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" t="s">
-        <v>101</v>
-      </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
@@ -3058,12 +3076,6 @@
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
-      <c r="J78" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3071,62 +3083,68 @@
         <v>100</v>
       </c>
       <c r="E79" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+      <c r="J79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
         <v>103</v>
       </c>
-      <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
         <v>25</v>
       </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
         <v>104</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80">
+    <row r="81" spans="1:10">
+      <c r="A81">
         <v>358</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>106</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>101</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>106</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>101</v>
       </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="D81" t="s">
-        <v>104</v>
-      </c>
-      <c r="E81" t="s">
-        <v>105</v>
-      </c>
       <c r="F81" t="s">
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -3134,36 +3152,27 @@
     </row>
     <row r="82" spans="1:10">
       <c r="D82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="D83" t="s">
         <v>107</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>108</v>
-      </c>
-      <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83">
-        <v>378</v>
-      </c>
-      <c r="B83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" t="s">
-        <v>111</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -3177,51 +3186,45 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B85" t="s">
         <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
         <v>112</v>
       </c>
       <c r="E85" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -3233,27 +3236,27 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B86" t="s">
         <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D86" t="s">
         <v>112</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
@@ -3265,24 +3268,24 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
         <v>116</v>
@@ -3296,45 +3299,54 @@
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
+        <v>387</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
         <v>405</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>118</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>119</v>
       </c>
-      <c r="D88" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
       <c r="D89" t="s">
         <v>120</v>
       </c>
       <c r="E89" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -3346,27 +3358,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90">
-        <v>404</v>
-      </c>
-      <c r="B90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" t="s">
-        <v>121</v>
-      </c>
       <c r="D90" t="s">
         <v>120</v>
       </c>
       <c r="E90" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -3378,27 +3381,27 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J90" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
@@ -3410,27 +3413,27 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="J91" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s">
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D92" t="s">
         <v>126</v>
       </c>
       <c r="E92" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
@@ -3442,15 +3445,24 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J92" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:10">
+      <c r="A93">
+        <v>410</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E93" t="s">
         <v>122</v>
@@ -3464,19 +3476,25 @@
       <c r="H93" t="b">
         <v>0</v>
       </c>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="94" spans="1:10">
       <c r="D94" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3484,25 +3502,19 @@
     </row>
     <row r="95" spans="1:10">
       <c r="D95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3510,22 +3522,22 @@
         <v>130</v>
       </c>
       <c r="E96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3533,22 +3545,22 @@
         <v>130</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="J97" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3556,7 +3568,7 @@
         <v>130</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
@@ -3571,7 +3583,7 @@
         <v>39</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3579,16 +3591,22 @@
         <v>130</v>
       </c>
       <c r="E99" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+      <c r="J99" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3596,7 +3614,7 @@
         <v>130</v>
       </c>
       <c r="E100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F100" t="s">
         <v>12</v>
@@ -3610,42 +3628,33 @@
     </row>
     <row r="101" spans="1:10">
       <c r="D101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>135</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="D102" t="s">
         <v>133</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>132</v>
       </c>
-      <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102">
-        <v>444</v>
-      </c>
-      <c r="B102" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" t="s">
-        <v>38</v>
-      </c>
       <c r="F102" t="s">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -3653,19 +3662,19 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B103" t="s">
         <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
         <v>39</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
@@ -3676,16 +3685,19 @@
       <c r="H103" t="b">
         <v>0</v>
       </c>
-      <c r="I103" t="s">
-        <v>59</v>
-      </c>
-      <c r="J103" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="104" spans="1:10">
+      <c r="A104">
+        <v>445</v>
+      </c>
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" t="s">
+        <v>138</v>
+      </c>
       <c r="D104" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
         <v>40</v>
@@ -3699,19 +3711,25 @@
       <c r="H104" t="b">
         <v>0</v>
       </c>
+      <c r="I104" t="s">
+        <v>59</v>
+      </c>
+      <c r="J104" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
       <c r="D105" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="E105" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -3719,10 +3737,10 @@
     </row>
     <row r="106" spans="1:10">
       <c r="D106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E106" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F106" t="s">
         <v>12</v>
@@ -3732,12 +3750,6 @@
       </c>
       <c r="H106" t="b">
         <v>0</v>
-      </c>
-      <c r="I106" t="s">
-        <v>143</v>
-      </c>
-      <c r="J106" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3745,178 +3757,178 @@
         <v>141</v>
       </c>
       <c r="E107" t="s">
+        <v>142</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>21</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+      <c r="J107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="D108" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" t="s">
         <v>144</v>
       </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
         <v>25</v>
       </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
         <v>145</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J108" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108">
-        <v>452</v>
-      </c>
-      <c r="B108" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" t="s">
-        <v>146</v>
-      </c>
-      <c r="E108" t="s">
-        <v>142</v>
-      </c>
-      <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>21</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>29</v>
-      </c>
-      <c r="J109" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B110" t="s">
         <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
         <v>147</v>
       </c>
       <c r="E110" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>29</v>
+      </c>
+      <c r="J110" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B111" t="s">
         <v>147</v>
       </c>
       <c r="C111" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
         <v>147</v>
       </c>
       <c r="E111" t="s">
+        <v>68</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <v>462</v>
+      </c>
+      <c r="B112" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" t="s">
+        <v>148</v>
+      </c>
+      <c r="D112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" t="s">
         <v>142</v>
       </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
         <v>143</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J112" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="D112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112" t="s">
-        <v>144</v>
-      </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
-      <c r="H112" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="D113" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="E113" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
-      </c>
-      <c r="I113" t="s">
-        <v>200</v>
-      </c>
-      <c r="J113" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3924,88 +3936,85 @@
         <v>198</v>
       </c>
       <c r="E114" t="s">
+        <v>199</v>
+      </c>
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>21</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>200</v>
+      </c>
+      <c r="J114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="D115" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" t="s">
         <v>201</v>
       </c>
-      <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
         <v>25</v>
       </c>
-      <c r="H114" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
         <v>202</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J115" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
+    <row r="116" spans="1:10">
+      <c r="A116">
         <v>282</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>203</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>18</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>204</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E116" t="s">
         <v>199</v>
       </c>
-      <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
-      <c r="H115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="D116" t="s">
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="D117" t="s">
         <v>205</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>201</v>
       </c>
-      <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
         <v>25</v>
-      </c>
-      <c r="H116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
-        <v>475</v>
-      </c>
-      <c r="B117" t="s">
-        <v>149</v>
-      </c>
-      <c r="C117" t="s">
-        <v>150</v>
-      </c>
-      <c r="D117" t="s">
-        <v>206</v>
-      </c>
-      <c r="E117" t="s">
-        <v>43</v>
-      </c>
-      <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -4013,142 +4022,168 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
+        <v>475</v>
+      </c>
+      <c r="B118" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" t="s">
+        <v>150</v>
+      </c>
+      <c r="D118" t="s">
+        <v>206</v>
+      </c>
+      <c r="E118" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119">
         <v>70</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>151</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>28</v>
       </c>
-      <c r="D118" t="s">
-        <v>152</v>
-      </c>
-      <c r="E118" t="s">
-        <v>28</v>
-      </c>
-      <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" t="s">
-        <v>29</v>
-      </c>
-      <c r="J118" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
       <c r="D119" t="s">
         <v>152</v>
       </c>
       <c r="E119" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
       <c r="H119" t="b">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="J119" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120">
-        <v>69</v>
-      </c>
-      <c r="B120" t="s">
-        <v>151</v>
-      </c>
-      <c r="C120" t="s">
-        <v>155</v>
-      </c>
       <c r="D120" t="s">
         <v>152</v>
       </c>
       <c r="E120" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>21</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+      <c r="J120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121">
+        <v>69</v>
+      </c>
+      <c r="B121" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" t="s">
+        <v>152</v>
+      </c>
+      <c r="E121" t="s">
         <v>43</v>
       </c>
-      <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
         <v>44</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J121" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="D121" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" t="s">
-        <v>153</v>
-      </c>
-      <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="D122" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" t="s">
+        <v>153</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="D123" t="s">
         <v>156</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>157</v>
       </c>
-      <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
         <v>25</v>
       </c>
-      <c r="H122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123">
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
         <v>515</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>158</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>18</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>158</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>159</v>
       </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123" t="b">
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" t="b">
         <v>0</v>
       </c>
     </row>

--- a/TablePrimaryKeys.xlsx
+++ b/TablePrimaryKeys.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\git_projects\accessAndMySQLTransfer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\todo\mysql2access\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C48BB-F8E2-4C1E-BD54-81F04D48B6FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACF8279-2C5C-4E03-91F6-D870AAF81457}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$182</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="462">
   <si>
     <t>RowNum</t>
   </si>
@@ -655,6 +658,759 @@
   </si>
   <si>
     <t>c_text_title</t>
+  </si>
+  <si>
+    <t>FKString</t>
+  </si>
+  <si>
+    <t>FKName</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>ADDR_BELONGS_ADDR_ID</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ADDR_BELONGS_BELONG_ID</t>
+  </si>
+  <si>
+    <t>c_source</t>
+  </si>
+  <si>
+    <t>ADDR_BELONGS_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ALTNAME_DATA_ALTNAME_CODES</t>
+  </si>
+  <si>
+    <t>ALTNAME_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>ALTNAME_DATA_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>ASSOC_CODE_TYPE_REL_ASSOC_CODE</t>
+  </si>
+  <si>
+    <t>ASSOC_CODE_TYPE_REL_ASSOC_TYPE</t>
+  </si>
+  <si>
+    <t>c_assoc_pair2</t>
+  </si>
+  <si>
+    <t>ASSOC_CODES_ASSOC_PAIR</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_ADDR_ID</t>
+  </si>
+  <si>
+    <t>c_assoc_claimer_id</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_CLAIMER_ID</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_ASSOC_CODE</t>
+  </si>
+  <si>
+    <t>c_assoc_day_gz</t>
+  </si>
+  <si>
+    <t>GANZHI_CODES</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_GANZHI</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_ASSOC_ID</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_ASSOC_KIN_CODE</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_ASSOC_KIN_ID</t>
+  </si>
+  <si>
+    <t>c_assoc_nh_code</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_nian_hao</t>
+  </si>
+  <si>
+    <t>c_assoc_range</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_year_range_code</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_SOCIAL_INSTITUTION_NAME_CODE</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_SOCIAL_INSTITUTION_CODE</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_KIN_CODE</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_KIN_ID</t>
+  </si>
+  <si>
+    <t>c_litgenre_code</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_literarygenre_code</t>
+  </si>
+  <si>
+    <t>OCCASION_CODES</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_OCCASION_CODE</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA</t>
+  </si>
+  <si>
+    <t>c_tertiary_personid</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_THIRD_PERSON_ID</t>
+  </si>
+  <si>
+    <t>ASSOC_DATA_SCHOLARLYTOPIC_CODE</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_ADDR_CODE</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_BIOG_ADDR_CODE</t>
+  </si>
+  <si>
+    <t>c_fy_day_gz</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_GANZHI_FY</t>
+  </si>
+  <si>
+    <t>c_fy_nh_code</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_nian_hao_fy</t>
+  </si>
+  <si>
+    <t>c_fy_range</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_year_range_code_fy</t>
+  </si>
+  <si>
+    <t>c_ly_day_gz</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_GANZHI_LY</t>
+  </si>
+  <si>
+    <t>c_ly_nh_code</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_nian_hao_ly</t>
+  </si>
+  <si>
+    <t>c_ly_range</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_year_range_code_ly</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>BIOG_ADDR_DATA_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>c_bi_by_nh_code</t>
+  </si>
+  <si>
+    <t>NIAN_HAO</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_NIAN_HAO_BY</t>
+  </si>
+  <si>
+    <t>c_bi_by_range</t>
+  </si>
+  <si>
+    <t>YEAR_RANGE_CODES</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_YEAR_RANGE_CODE_BY</t>
+  </si>
+  <si>
+    <t>c_bi_ey_nh_code</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_NIAN_HAO_EY</t>
+  </si>
+  <si>
+    <t>c_bi_ey_range</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_YEAR_RANGE_CODE_EY</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_BIOG_INST_CODE</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_SOCIAL_INSTITUTION_NAME_CODE</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_SOCIAL_INSTITUTION_CODE</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>BIOG_INST_DATA_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>c_by_day_gz</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_GANZHI_BY_DAY</t>
+  </si>
+  <si>
+    <t>c_by_nh_code</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_nian_hao_by</t>
+  </si>
+  <si>
+    <t>c_by_range</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_year_range_by</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_choronym_code</t>
+  </si>
+  <si>
+    <t>c_death_age_range</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_year_range_da</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_dynasty_code</t>
+  </si>
+  <si>
+    <t>c_dy_day_gz</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_GANZHI_DY_DAY</t>
+  </si>
+  <si>
+    <t>c_dy_nh_code</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_nian_hao_dy</t>
+  </si>
+  <si>
+    <t>c_dy_range</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_year_range_dy</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_ETHNICITY_CODE</t>
+  </si>
+  <si>
+    <t>c_fl_ey_nh_code</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_nian_hao_fl_ey</t>
+  </si>
+  <si>
+    <t>c_fl_ly_nh_code</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_nian_hao_fl_ly</t>
+  </si>
+  <si>
+    <t>BIOG_MAIN_HOUSEHOLD_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>BIOG_SOURCE_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>BIOG_SOURCE_DATA_TEXT_ID</t>
+  </si>
+  <si>
+    <t>ENTRY_CODE_TYPE_REL_ENTRY_CODE</t>
+  </si>
+  <si>
+    <t>ENTRY_CODE_TYPE_REL_ENTRY_TYPE</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_ASSOC_CODE</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_ASSOC_ID</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_ENTRY_CODE</t>
+  </si>
+  <si>
+    <t>c_entry_range</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_year_range_code</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_SOCIAL_INSTITUTION_NAME_CODE</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_SOCIAL_INSTITUTION_CODE</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_KIN_CODE</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_KIN_ID</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_nian_hao</t>
+  </si>
+  <si>
+    <t>c_parental_status</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_PARENTAL_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>ENTRY_DATA_SOURCE_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>EVENT_CODES</t>
+  </si>
+  <si>
+    <t>EVENT_CODES_ADDR_ID</t>
+  </si>
+  <si>
+    <t>EVENT_CODES_dynasty</t>
+  </si>
+  <si>
+    <t>EVENT_CODES_nian_hao_fy</t>
+  </si>
+  <si>
+    <t>EVENT_CODES_year_range_code_fy</t>
+  </si>
+  <si>
+    <t>EVENT_CODES_nian_hao_ly</t>
+  </si>
+  <si>
+    <t>EVENT_CODES_year_range_code_ly</t>
+  </si>
+  <si>
+    <t>EVENT_CODES_SOURCE_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>EVENTS_ADDR_ADDR_ID</t>
+  </si>
+  <si>
+    <t>EVENTS_ADDR</t>
+  </si>
+  <si>
+    <t>c_day_ganzhi</t>
+  </si>
+  <si>
+    <t>EVENTS_ADDR_GANZHI_DAY</t>
+  </si>
+  <si>
+    <t>EVENTS_ADDR_EVENT_ID</t>
+  </si>
+  <si>
+    <t>c_nh_code</t>
+  </si>
+  <si>
+    <t>EVENTS_ADDR_NIAN_HAO</t>
+  </si>
+  <si>
+    <t>EVENTS_ADDR_PERSON_ID</t>
+  </si>
+  <si>
+    <t>c_yr_range</t>
+  </si>
+  <si>
+    <t>EVENTS_ADDR_YEAR_RANGE_CODE</t>
+  </si>
+  <si>
+    <t>EVENTS_DATA_ADDR_ID</t>
+  </si>
+  <si>
+    <t>EVENTS_DATA_GANZHI_DAY</t>
+  </si>
+  <si>
+    <t>EVENTS_DATA_EVENT_CODE</t>
+  </si>
+  <si>
+    <t>EVENTS_DATA_EVENT_ID</t>
+  </si>
+  <si>
+    <t>EVENTS_DATA_nian_hao</t>
+  </si>
+  <si>
+    <t>EVENTS_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>EVENTS_DATA_SOURCE_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>EVENTS_DATA_year_range_code</t>
+  </si>
+  <si>
+    <t>KIN_DATA_KIN_CODES</t>
+  </si>
+  <si>
+    <t>KIN_DATA_KIN_ID</t>
+  </si>
+  <si>
+    <t>KIN_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>KIN_DATA_SOURCE_TEXT_CODES</t>
+  </si>
+  <si>
+    <t>c_kin_pair1</t>
+  </si>
+  <si>
+    <t>KINSHIP_CODES_KIN_PAIR1</t>
+  </si>
+  <si>
+    <t>c_kin_pair2</t>
+  </si>
+  <si>
+    <t>KINSHIP_CODES_KIN_PAIR2</t>
+  </si>
+  <si>
+    <t>dynasty</t>
+  </si>
+  <si>
+    <t>OFFICE_CODE_TYPE_REL_OFFICE_ID</t>
+  </si>
+  <si>
+    <t>OFFICE_CODE_TYPE_REL_OFFICE_TYPE_TREE</t>
+  </si>
+  <si>
+    <t>OFFICE_CODES_dynasty</t>
+  </si>
+  <si>
+    <t>OFFICE_CODES_SOURCE_TEXT_CODES</t>
+  </si>
+  <si>
+    <t>c_parent_id</t>
+  </si>
+  <si>
+    <t>OFFICE_TYPE_TREE_PARENT</t>
+  </si>
+  <si>
+    <t>POSSESSION_ADDR_ADDR_ID</t>
+  </si>
+  <si>
+    <t>POSSESSION_ADDR_PERSON_ID</t>
+  </si>
+  <si>
+    <t>POSSESSION_ADDR_possession_id</t>
+  </si>
+  <si>
+    <t>POSSESSION_DATA_ADDR_ID</t>
+  </si>
+  <si>
+    <t>MEASURE_CODES</t>
+  </si>
+  <si>
+    <t>POSSESSION_DATA_MEASURE_CODE</t>
+  </si>
+  <si>
+    <t>POSSESSION_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>POSSESSION_DATA_possession_act_code</t>
+  </si>
+  <si>
+    <t>c_possession_nh_code</t>
+  </si>
+  <si>
+    <t>POSSESSION_DATA_nian_hao</t>
+  </si>
+  <si>
+    <t>c_possession_yr_range</t>
+  </si>
+  <si>
+    <t>POSSESSION_DATA_year_range_code</t>
+  </si>
+  <si>
+    <t>POSSESSION_DATA_SOURCE_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>POSTED_TO_ADDR_DATA_ADDR_ID</t>
+  </si>
+  <si>
+    <t>POSTED_TO_ADDR_DATA_OFFICE_ID</t>
+  </si>
+  <si>
+    <t>POSTED_TO_ADDR_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>POSTED_TO_ADDR_DATA_POSTING_ID</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_appointment_type_code</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_assume_office_code</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_dynasty</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_GANZHI_FY_DAY</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_nian_hao_fy</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_year_range_fy</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_SOCIAL_INSTITUTION_NAME_CODE</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_SOCIAL_INSTITUTION_CODE</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_GANZHI_LY_DAY</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_nian_hao_ly</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_year_range_ly</t>
+  </si>
+  <si>
+    <t>OFFICE_CATEGORIES</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_OFFICE_CATEGORY</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_OFFICE_ID</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_POSTING_ID</t>
+  </si>
+  <si>
+    <t>POSTED_TO_OFFICE_DATA_SOURCE_TEXT_CODE</t>
+  </si>
+  <si>
+    <t>POSTING_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_ADDR_ADDR_ID</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_ADDR_TYPE</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_ADDR_SOCIAL_INSTITUTION_CODE</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_ADDR_TEXT_CODES</t>
+  </si>
+  <si>
+    <t>c_by_nianhao_code</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_NIAN_HAO_BY</t>
+  </si>
+  <si>
+    <t>c_by_year_range</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_YEAR_RANGE_CODE_BY</t>
+  </si>
+  <si>
+    <t>c_ey_nianhao_code</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_NIAN_HAO_EY</t>
+  </si>
+  <si>
+    <t>c_ey_year_range</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_YEAR_RANGE_CODE_EY</t>
+  </si>
+  <si>
+    <t>c_inst_begin_dy</t>
+  </si>
+  <si>
+    <t>DYNASTIES</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_DYNASTY_BEGIN</t>
+  </si>
+  <si>
+    <t>c_inst_floruit_dy</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_DYNASTY_END</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_SOCIAL_INSTITUTION_NAME_CODE</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_SOCIAL_INSTITUTION_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>SOCIAL_INSTITUTION_CODES_SOURCE_TEXT_ID</t>
+  </si>
+  <si>
+    <t>STATUS_CODE_TYPE_REL_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>STATUS_CODE_TYPE_REL_STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS_DATA_nian_hao_fy</t>
+  </si>
+  <si>
+    <t>STATUS_DATA_year_range_code_fy</t>
+  </si>
+  <si>
+    <t>STATUS_DATA_nian_hao_ly</t>
+  </si>
+  <si>
+    <t>STATUS_DATA_year_range_code_ly</t>
+  </si>
+  <si>
+    <t>STATUS_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>STATUS_DATA_SOURCE_TEXT_ID</t>
+  </si>
+  <si>
+    <t>STATUS_DATA_STATUS_CODES</t>
+  </si>
+  <si>
+    <t>TEXT_BIBLCAT_CODE_TYPE_REL_TEXT_CAT_CODE</t>
+  </si>
+  <si>
+    <t>TEXT_BIBLCAT_CODE_TYPE_REL_TEXT_CAT_TYPE</t>
+  </si>
+  <si>
+    <t>c_bibl_cat_code</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_TEXT_BIBLCAT_CODE</t>
+  </si>
+  <si>
+    <t>c_extant</t>
+  </si>
+  <si>
+    <t>EXTANT_CODES</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_EXTANT_CODE</t>
+  </si>
+  <si>
+    <t>c_pub_country</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODES</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_COUNTRY_CODE_PUB</t>
+  </si>
+  <si>
+    <t>c_pub_dy</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_DYNASTY_PUB</t>
+  </si>
+  <si>
+    <t>c_pub_nh_code</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_NIAN_HAO_PUB</t>
+  </si>
+  <si>
+    <t>c_pub_range_code</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_YEAR_RANGE_CODE_PUB</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_SOURCE_TEXT_ID</t>
+  </si>
+  <si>
+    <t>c_text_country</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_COUNTRY_CODE_TEXT</t>
+  </si>
+  <si>
+    <t>c_text_dy</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_DYNASTY_TEXT</t>
+  </si>
+  <si>
+    <t>c_text_nh_code</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_NIAN_HAO_TEXT</t>
+  </si>
+  <si>
+    <t>c_text_range_code</t>
+  </si>
+  <si>
+    <t>TEXT_CODES_YEAR_RANGE_CODE_TEXT</t>
+  </si>
+  <si>
+    <t>TEXT_DATA_NIAN_HAO</t>
+  </si>
+  <si>
+    <t>TEXT_DATA_PERSON_ID</t>
+  </si>
+  <si>
+    <t>TEXT_DATA_YEAR_RANGE_CODE</t>
+  </si>
+  <si>
+    <t>TEXT_DATA_TEXT_ROLE_CODE</t>
+  </si>
+  <si>
+    <t>TEXT_DATA_SOURCE_TEXT_ID</t>
+  </si>
+  <si>
+    <t>TEXT_DATA_TEXT_ID</t>
   </si>
 </sst>
 </file>
@@ -1036,11 +1792,5489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>282</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" t="s">
+        <v>292</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" t="s">
+        <v>297</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" t="s">
+        <v>304</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" t="s">
+        <v>307</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>309</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>310</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" t="s">
+        <v>311</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" t="s">
+        <v>312</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" t="s">
+        <v>313</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>314</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" t="s">
+        <v>316</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s">
+        <v>317</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>318</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" t="s">
+        <v>319</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s">
+        <v>320</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" t="s">
+        <v>321</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>322</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" t="s">
+        <v>323</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>324</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>325</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>326</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>327</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" t="s">
+        <v>191</v>
+      </c>
+      <c r="F79" t="s">
+        <v>328</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" t="s">
+        <v>329</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" t="s">
+        <v>330</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" t="s">
+        <v>331</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" t="s">
+        <v>332</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>333</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>334</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" t="s">
+        <v>336</v>
+      </c>
+      <c r="C86" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" t="s">
+        <v>337</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" t="s">
+        <v>338</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" t="s">
+        <v>95</v>
+      </c>
+      <c r="F88" t="s">
+        <v>340</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>341</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" t="s">
+        <v>343</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>344</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" t="s">
+        <v>336</v>
+      </c>
+      <c r="C92" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" t="s">
+        <v>345</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" t="s">
+        <v>326</v>
+      </c>
+      <c r="D93" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" t="s">
+        <v>346</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" t="s">
+        <v>326</v>
+      </c>
+      <c r="D94" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" t="s">
+        <v>347</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" t="s">
+        <v>348</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" t="s">
+        <v>349</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>350</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" t="s">
+        <v>351</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" t="s">
+        <v>63</v>
+      </c>
+      <c r="F99" t="s">
+        <v>352</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
+        <v>353</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>354</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>355</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" t="s">
+        <v>356</v>
+      </c>
+      <c r="C103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" t="s">
+        <v>63</v>
+      </c>
+      <c r="F103" t="s">
+        <v>357</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" t="s">
+        <v>358</v>
+      </c>
+      <c r="C104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" t="s">
+        <v>359</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" t="s">
+        <v>191</v>
+      </c>
+      <c r="F105" t="s">
+        <v>360</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" t="s">
+        <v>361</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" t="s">
+        <v>362</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" t="s">
+        <v>191</v>
+      </c>
+      <c r="F108" t="s">
+        <v>363</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>364</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>104</v>
+      </c>
+      <c r="B110" t="s">
+        <v>365</v>
+      </c>
+      <c r="C110" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" t="s">
+        <v>105</v>
+      </c>
+      <c r="F110" t="s">
+        <v>366</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>367</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>368</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" t="s">
+        <v>369</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>370</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" t="s">
+        <v>92</v>
+      </c>
+      <c r="E115" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115" t="s">
+        <v>372</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" t="s">
+        <v>373</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" t="s">
+        <v>109</v>
+      </c>
+      <c r="D117" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" t="s">
+        <v>111</v>
+      </c>
+      <c r="F117" t="s">
+        <v>374</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>375</v>
+      </c>
+      <c r="C118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118" t="s">
+        <v>95</v>
+      </c>
+      <c r="E118" t="s">
+        <v>95</v>
+      </c>
+      <c r="F118" t="s">
+        <v>376</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>377</v>
+      </c>
+      <c r="C119" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F119" t="s">
+        <v>378</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
+        <v>217</v>
+      </c>
+      <c r="C120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" t="s">
+        <v>379</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>380</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122" t="s">
+        <v>101</v>
+      </c>
+      <c r="E122" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" t="s">
+        <v>381</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" t="s">
+        <v>382</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" t="s">
+        <v>122</v>
+      </c>
+      <c r="F124" t="s">
+        <v>383</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" t="s">
+        <v>162</v>
+      </c>
+      <c r="D125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E125" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" t="s">
+        <v>384</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>176</v>
+      </c>
+      <c r="C126" t="s">
+        <v>174</v>
+      </c>
+      <c r="D126" t="s">
+        <v>176</v>
+      </c>
+      <c r="E126" t="s">
+        <v>176</v>
+      </c>
+      <c r="F126" t="s">
+        <v>385</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>21</v>
+      </c>
+      <c r="J126" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>191</v>
+      </c>
+      <c r="C127" t="s">
+        <v>189</v>
+      </c>
+      <c r="D127" t="s">
+        <v>191</v>
+      </c>
+      <c r="E127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F127" t="s">
+        <v>386</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128" t="s">
+        <v>82</v>
+      </c>
+      <c r="E128" t="s">
+        <v>82</v>
+      </c>
+      <c r="F128" t="s">
+        <v>387</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>21</v>
+      </c>
+      <c r="J128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" t="s">
+        <v>95</v>
+      </c>
+      <c r="F129" t="s">
+        <v>388</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" t="s">
+        <v>389</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>126</v>
+      </c>
+      <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" t="s">
+        <v>390</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>391</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>126</v>
+      </c>
+      <c r="B133" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F133" t="s">
+        <v>392</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>126</v>
+      </c>
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" t="s">
+        <v>93</v>
+      </c>
+      <c r="D134" t="s">
+        <v>95</v>
+      </c>
+      <c r="E134" t="s">
+        <v>95</v>
+      </c>
+      <c r="F134" t="s">
+        <v>393</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135" t="s">
+        <v>159</v>
+      </c>
+      <c r="F135" t="s">
+        <v>394</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" t="s">
+        <v>395</v>
+      </c>
+      <c r="D136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E136" t="s">
+        <v>99</v>
+      </c>
+      <c r="F136" t="s">
+        <v>396</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137" t="s">
+        <v>102</v>
+      </c>
+      <c r="D137" t="s">
+        <v>101</v>
+      </c>
+      <c r="E137" t="s">
+        <v>101</v>
+      </c>
+      <c r="F137" t="s">
+        <v>397</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" t="s">
+        <v>398</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" t="s">
+        <v>122</v>
+      </c>
+      <c r="C139" t="s">
+        <v>123</v>
+      </c>
+      <c r="D139" t="s">
+        <v>122</v>
+      </c>
+      <c r="E139" t="s">
+        <v>122</v>
+      </c>
+      <c r="F139" t="s">
+        <v>399</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>126</v>
+      </c>
+      <c r="B140" t="s">
+        <v>217</v>
+      </c>
+      <c r="C140" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" t="s">
+        <v>400</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" t="s">
+        <v>401</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>130</v>
+      </c>
+      <c r="B142" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>402</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143" t="s">
+        <v>133</v>
+      </c>
+      <c r="D143" t="s">
+        <v>132</v>
+      </c>
+      <c r="E143" t="s">
+        <v>132</v>
+      </c>
+      <c r="F143" t="s">
+        <v>403</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
+        <v>404</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>130</v>
+      </c>
+      <c r="B145" t="s">
+        <v>217</v>
+      </c>
+      <c r="C145" t="s">
+        <v>44</v>
+      </c>
+      <c r="D145" t="s">
+        <v>43</v>
+      </c>
+      <c r="E145" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145" t="s">
+        <v>405</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" t="s">
+        <v>406</v>
+      </c>
+      <c r="C146" t="s">
+        <v>272</v>
+      </c>
+      <c r="D146" t="s">
+        <v>95</v>
+      </c>
+      <c r="E146" t="s">
+        <v>95</v>
+      </c>
+      <c r="F146" t="s">
+        <v>407</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>21</v>
+      </c>
+      <c r="J146" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" t="s">
+        <v>408</v>
+      </c>
+      <c r="C147" t="s">
+        <v>275</v>
+      </c>
+      <c r="D147" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147" t="s">
+        <v>159</v>
+      </c>
+      <c r="F147" t="s">
+        <v>409</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" t="s">
+        <v>272</v>
+      </c>
+      <c r="D148" t="s">
+        <v>95</v>
+      </c>
+      <c r="E148" t="s">
+        <v>95</v>
+      </c>
+      <c r="F148" t="s">
+        <v>411</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>21</v>
+      </c>
+      <c r="J148" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" t="s">
+        <v>412</v>
+      </c>
+      <c r="C149" t="s">
+        <v>275</v>
+      </c>
+      <c r="D149" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149" t="s">
+        <v>159</v>
+      </c>
+      <c r="F149" t="s">
+        <v>413</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" t="s">
+        <v>414</v>
+      </c>
+      <c r="C150" t="s">
+        <v>415</v>
+      </c>
+      <c r="D150" t="s">
+        <v>191</v>
+      </c>
+      <c r="E150" t="s">
+        <v>191</v>
+      </c>
+      <c r="F150" t="s">
+        <v>416</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>417</v>
+      </c>
+      <c r="C151" t="s">
+        <v>415</v>
+      </c>
+      <c r="D151" t="s">
+        <v>191</v>
+      </c>
+      <c r="E151" t="s">
+        <v>191</v>
+      </c>
+      <c r="F151" t="s">
+        <v>418</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>21</v>
+      </c>
+      <c r="J151" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" t="s">
+        <v>419</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" t="s">
+        <v>13</v>
+      </c>
+      <c r="J152" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" t="s">
+        <v>139</v>
+      </c>
+      <c r="D153" t="s">
+        <v>140</v>
+      </c>
+      <c r="E153" t="s">
+        <v>140</v>
+      </c>
+      <c r="F153" t="s">
+        <v>420</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>217</v>
+      </c>
+      <c r="C154" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" t="s">
+        <v>421</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>141</v>
+      </c>
+      <c r="B155" t="s">
+        <v>142</v>
+      </c>
+      <c r="C155" t="s">
+        <v>143</v>
+      </c>
+      <c r="D155" t="s">
+        <v>142</v>
+      </c>
+      <c r="E155" t="s">
+        <v>142</v>
+      </c>
+      <c r="F155" t="s">
+        <v>422</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" t="s">
+        <v>144</v>
+      </c>
+      <c r="C156" t="s">
+        <v>145</v>
+      </c>
+      <c r="D156" t="s">
+        <v>144</v>
+      </c>
+      <c r="E156" t="s">
+        <v>144</v>
+      </c>
+      <c r="F156" t="s">
+        <v>423</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" t="s">
+        <v>25</v>
+      </c>
+      <c r="J156" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" t="s">
+        <v>259</v>
+      </c>
+      <c r="C157" t="s">
+        <v>93</v>
+      </c>
+      <c r="D157" t="s">
+        <v>95</v>
+      </c>
+      <c r="E157" t="s">
+        <v>95</v>
+      </c>
+      <c r="F157" t="s">
+        <v>424</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="I157" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" t="s">
+        <v>261</v>
+      </c>
+      <c r="C158" t="s">
+        <v>158</v>
+      </c>
+      <c r="D158" t="s">
+        <v>159</v>
+      </c>
+      <c r="E158" t="s">
+        <v>159</v>
+      </c>
+      <c r="F158" t="s">
+        <v>425</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>147</v>
+      </c>
+      <c r="B159" t="s">
+        <v>265</v>
+      </c>
+      <c r="C159" t="s">
+        <v>93</v>
+      </c>
+      <c r="D159" t="s">
+        <v>95</v>
+      </c>
+      <c r="E159" t="s">
+        <v>95</v>
+      </c>
+      <c r="F159" t="s">
+        <v>426</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>21</v>
+      </c>
+      <c r="J159" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>147</v>
+      </c>
+      <c r="B160" t="s">
+        <v>267</v>
+      </c>
+      <c r="C160" t="s">
+        <v>158</v>
+      </c>
+      <c r="D160" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" t="s">
+        <v>159</v>
+      </c>
+      <c r="F160" t="s">
+        <v>427</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>147</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>428</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" t="s">
+        <v>13</v>
+      </c>
+      <c r="J161" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162" t="s">
+        <v>43</v>
+      </c>
+      <c r="E162" t="s">
+        <v>43</v>
+      </c>
+      <c r="F162" t="s">
+        <v>429</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>13</v>
+      </c>
+      <c r="J162" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>147</v>
+      </c>
+      <c r="B163" t="s">
+        <v>142</v>
+      </c>
+      <c r="C163" t="s">
+        <v>143</v>
+      </c>
+      <c r="D163" t="s">
+        <v>142</v>
+      </c>
+      <c r="E163" t="s">
+        <v>142</v>
+      </c>
+      <c r="F163" t="s">
+        <v>430</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" t="s">
+        <v>21</v>
+      </c>
+      <c r="J163" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>198</v>
+      </c>
+      <c r="B164" t="s">
+        <v>199</v>
+      </c>
+      <c r="C164" t="s">
+        <v>204</v>
+      </c>
+      <c r="D164" t="s">
+        <v>199</v>
+      </c>
+      <c r="E164" t="s">
+        <v>199</v>
+      </c>
+      <c r="F164" t="s">
+        <v>431</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" t="s">
+        <v>21</v>
+      </c>
+      <c r="J164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>198</v>
+      </c>
+      <c r="B165" t="s">
+        <v>201</v>
+      </c>
+      <c r="C165" t="s">
+        <v>205</v>
+      </c>
+      <c r="D165" t="s">
+        <v>201</v>
+      </c>
+      <c r="E165" t="s">
+        <v>201</v>
+      </c>
+      <c r="F165" t="s">
+        <v>432</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" t="s">
+        <v>433</v>
+      </c>
+      <c r="C166" t="s">
+        <v>204</v>
+      </c>
+      <c r="D166" t="s">
+        <v>199</v>
+      </c>
+      <c r="E166" t="s">
+        <v>199</v>
+      </c>
+      <c r="F166" t="s">
+        <v>434</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>21</v>
+      </c>
+      <c r="J166" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>206</v>
+      </c>
+      <c r="B167" t="s">
+        <v>435</v>
+      </c>
+      <c r="C167" t="s">
+        <v>436</v>
+      </c>
+      <c r="D167" t="s">
+        <v>79</v>
+      </c>
+      <c r="E167" t="s">
+        <v>79</v>
+      </c>
+      <c r="F167" t="s">
+        <v>437</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>21</v>
+      </c>
+      <c r="J167" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>206</v>
+      </c>
+      <c r="B168" t="s">
+        <v>438</v>
+      </c>
+      <c r="C168" t="s">
+        <v>439</v>
+      </c>
+      <c r="D168" t="s">
+        <v>188</v>
+      </c>
+      <c r="E168" t="s">
+        <v>188</v>
+      </c>
+      <c r="F168" t="s">
+        <v>440</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>21</v>
+      </c>
+      <c r="J168" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>206</v>
+      </c>
+      <c r="B169" t="s">
+        <v>441</v>
+      </c>
+      <c r="C169" t="s">
+        <v>415</v>
+      </c>
+      <c r="D169" t="s">
+        <v>191</v>
+      </c>
+      <c r="E169" t="s">
+        <v>191</v>
+      </c>
+      <c r="F169" t="s">
+        <v>442</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>21</v>
+      </c>
+      <c r="J169" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>206</v>
+      </c>
+      <c r="B170" t="s">
+        <v>443</v>
+      </c>
+      <c r="C170" t="s">
+        <v>272</v>
+      </c>
+      <c r="D170" t="s">
+        <v>95</v>
+      </c>
+      <c r="E170" t="s">
+        <v>95</v>
+      </c>
+      <c r="F170" t="s">
+        <v>444</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>21</v>
+      </c>
+      <c r="J170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>206</v>
+      </c>
+      <c r="B171" t="s">
+        <v>445</v>
+      </c>
+      <c r="C171" t="s">
+        <v>275</v>
+      </c>
+      <c r="D171" t="s">
+        <v>159</v>
+      </c>
+      <c r="E171" t="s">
+        <v>159</v>
+      </c>
+      <c r="F171" t="s">
+        <v>446</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="I171" t="s">
+        <v>21</v>
+      </c>
+      <c r="J171" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>206</v>
+      </c>
+      <c r="B172" t="s">
+        <v>217</v>
+      </c>
+      <c r="C172" t="s">
+        <v>44</v>
+      </c>
+      <c r="D172" t="s">
+        <v>43</v>
+      </c>
+      <c r="E172" t="s">
+        <v>43</v>
+      </c>
+      <c r="F172" t="s">
+        <v>447</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+      <c r="J172" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>206</v>
+      </c>
+      <c r="B173" t="s">
+        <v>448</v>
+      </c>
+      <c r="C173" t="s">
+        <v>439</v>
+      </c>
+      <c r="D173" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173" t="s">
+        <v>188</v>
+      </c>
+      <c r="F173" t="s">
+        <v>449</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>21</v>
+      </c>
+      <c r="J173" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B174" t="s">
+        <v>450</v>
+      </c>
+      <c r="C174" t="s">
+        <v>415</v>
+      </c>
+      <c r="D174" t="s">
+        <v>191</v>
+      </c>
+      <c r="E174" t="s">
+        <v>191</v>
+      </c>
+      <c r="F174" t="s">
+        <v>451</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="I174" t="s">
+        <v>21</v>
+      </c>
+      <c r="J174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>206</v>
+      </c>
+      <c r="B175" t="s">
+        <v>452</v>
+      </c>
+      <c r="C175" t="s">
+        <v>272</v>
+      </c>
+      <c r="D175" t="s">
+        <v>95</v>
+      </c>
+      <c r="E175" t="s">
+        <v>95</v>
+      </c>
+      <c r="F175" t="s">
+        <v>453</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="I175" t="s">
+        <v>21</v>
+      </c>
+      <c r="J175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>206</v>
+      </c>
+      <c r="B176" t="s">
+        <v>454</v>
+      </c>
+      <c r="C176" t="s">
+        <v>275</v>
+      </c>
+      <c r="D176" t="s">
+        <v>159</v>
+      </c>
+      <c r="E176" t="s">
+        <v>159</v>
+      </c>
+      <c r="F176" t="s">
+        <v>455</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>21</v>
+      </c>
+      <c r="J176" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>152</v>
+      </c>
+      <c r="B177" t="s">
+        <v>339</v>
+      </c>
+      <c r="C177" t="s">
+        <v>272</v>
+      </c>
+      <c r="D177" t="s">
+        <v>95</v>
+      </c>
+      <c r="E177" t="s">
+        <v>95</v>
+      </c>
+      <c r="F177" t="s">
+        <v>456</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>21</v>
+      </c>
+      <c r="J177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" t="s">
+        <v>457</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
+        <v>12</v>
+      </c>
+      <c r="J178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" t="s">
+        <v>275</v>
+      </c>
+      <c r="D179" t="s">
+        <v>159</v>
+      </c>
+      <c r="E179" t="s">
+        <v>159</v>
+      </c>
+      <c r="F179" t="s">
+        <v>458</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>21</v>
+      </c>
+      <c r="J179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>152</v>
+      </c>
+      <c r="B180" t="s">
+        <v>153</v>
+      </c>
+      <c r="C180" t="s">
+        <v>154</v>
+      </c>
+      <c r="D180" t="s">
+        <v>153</v>
+      </c>
+      <c r="E180" t="s">
+        <v>153</v>
+      </c>
+      <c r="F180" t="s">
+        <v>459</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" t="s">
+        <v>21</v>
+      </c>
+      <c r="J180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181" t="s">
+        <v>217</v>
+      </c>
+      <c r="C181" t="s">
+        <v>44</v>
+      </c>
+      <c r="D181" t="s">
+        <v>43</v>
+      </c>
+      <c r="E181" t="s">
+        <v>43</v>
+      </c>
+      <c r="F181" t="s">
+        <v>460</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
+        <v>152</v>
+      </c>
+      <c r="B182" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" t="s">
+        <v>44</v>
+      </c>
+      <c r="D182" t="s">
+        <v>43</v>
+      </c>
+      <c r="E182" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" t="s">
+        <v>461</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182" t="s">
+        <v>12</v>
+      </c>
+      <c r="J182" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J182" xr:uid="{DF7BCA3E-3ACA-468A-BA96-CB82B274BF2C}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection sqref="A1:J124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4188,25 +10422,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J100">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J100">
     <sortCondition ref="D1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
